--- a/data_craw/quarter/balance_sheet_quarter/eib.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/eib.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7405520000000</v>
+        <v>2101048000000</v>
       </c>
       <c r="C4" t="n">
-        <v>2630283000000</v>
+        <v>2073126000000</v>
       </c>
       <c r="D4" t="n">
-        <v>2255719000000</v>
+        <v>1983030000000</v>
       </c>
       <c r="E4" t="n">
-        <v>3345747000000</v>
+        <v>2084977000000</v>
       </c>
       <c r="F4" t="n">
-        <v>2101048000000</v>
+        <v>2047391000000</v>
       </c>
       <c r="G4" t="n">
-        <v>2073126000000</v>
+        <v>1936330000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1983030000000</v>
+        <v>2373420000000</v>
       </c>
       <c r="I4" t="n">
-        <v>2084977000000</v>
+        <v>2071318000000</v>
       </c>
       <c r="J4" t="n">
-        <v>2047391000000</v>
+        <v>2247179000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1936330000000</v>
+        <v>2125863000000</v>
       </c>
       <c r="L4" t="n">
-        <v>2373420000000</v>
+        <v>2347958000000</v>
       </c>
       <c r="M4" t="n">
-        <v>2071318000000</v>
+        <v>1869721000000</v>
       </c>
       <c r="N4" t="n">
-        <v>2247179000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2125863000000</v>
-      </c>
+        <v>2070528000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>2347958000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1869721000000</v>
-      </c>
+        <v>2055335000000</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +670,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2953958000000</v>
+        <v>3333806000000</v>
       </c>
       <c r="C7" t="n">
-        <v>5737641000000</v>
+        <v>3910391000000</v>
       </c>
       <c r="D7" t="n">
-        <v>3792753000000</v>
+        <v>12531387000000</v>
       </c>
       <c r="E7" t="n">
-        <v>3277433000000</v>
+        <v>9613429000000</v>
       </c>
       <c r="F7" t="n">
-        <v>3333806000000</v>
+        <v>6288179000000</v>
       </c>
       <c r="G7" t="n">
-        <v>3910391000000</v>
+        <v>3392981000000</v>
       </c>
       <c r="H7" t="n">
-        <v>12531387000000</v>
+        <v>4668080000000</v>
       </c>
       <c r="I7" t="n">
-        <v>9613429000000</v>
+        <v>3815521000000</v>
       </c>
       <c r="J7" t="n">
-        <v>6288179000000</v>
+        <v>5445181000000</v>
       </c>
       <c r="K7" t="n">
-        <v>3392981000000</v>
+        <v>5584541000000</v>
       </c>
       <c r="L7" t="n">
-        <v>4668080000000</v>
+        <v>3196513000000</v>
       </c>
       <c r="M7" t="n">
-        <v>3815521000000</v>
+        <v>6676517000000</v>
       </c>
       <c r="N7" t="n">
-        <v>5445181000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5584541000000</v>
-      </c>
+        <v>2092539000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>3196513000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6676517000000</v>
-      </c>
+        <v>6632191000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,51 +790,47 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18139425000000</v>
+        <v>21644340000000</v>
       </c>
       <c r="C11" t="n">
-        <v>25857597000000</v>
+        <v>32378350000000</v>
       </c>
       <c r="D11" t="n">
-        <v>22246188000000</v>
+        <v>23705421000000</v>
       </c>
       <c r="E11" t="n">
-        <v>15697196000000</v>
+        <v>24316627000000</v>
       </c>
       <c r="F11" t="n">
-        <v>21644340000000</v>
+        <v>26804590000000</v>
       </c>
       <c r="G11" t="n">
-        <v>32378350000000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>23705421000000</v>
-      </c>
+        <v>25206015000000</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>24316627000000</v>
+        <v>27225004000000</v>
       </c>
       <c r="J11" t="n">
-        <v>26804590000000</v>
+        <v>32484084000000</v>
       </c>
       <c r="K11" t="n">
-        <v>25206015000000</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>26046802000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30479843000000</v>
+      </c>
       <c r="M11" t="n">
-        <v>27225004000000</v>
+        <v>36734543000000</v>
       </c>
       <c r="N11" t="n">
-        <v>32484084000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>26046802000000</v>
-      </c>
+        <v>41101798000000</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>30479843000000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>36734543000000</v>
-      </c>
+        <v>35638965000000</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -851,49 +839,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18139377000000</v>
+        <v>21644388000000</v>
       </c>
       <c r="C12" t="n">
-        <v>25857588000000</v>
+        <v>32378350000000</v>
       </c>
       <c r="D12" t="n">
-        <v>22246188000000</v>
+        <v>23705413000000</v>
       </c>
       <c r="E12" t="n">
-        <v>15697192000000</v>
+        <v>24316627000000</v>
       </c>
       <c r="F12" t="n">
-        <v>21644388000000</v>
+        <v>26804590000000</v>
       </c>
       <c r="G12" t="n">
-        <v>32378350000000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23705413000000</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24316627000000</v>
-      </c>
+        <v>25206015000000</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>26804590000000</v>
+        <v>32484084000000</v>
       </c>
       <c r="K12" t="n">
-        <v>25206015000000</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+        <v>26046802000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30479843000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>36734543000000</v>
+      </c>
       <c r="N12" t="n">
-        <v>32484084000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>26046802000000</v>
-      </c>
+        <v>41101798000000</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>30479843000000</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>36734543000000</v>
-      </c>
+        <v>35638965000000</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -902,22 +886,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48000000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="F13" t="n">
         <v>2000000</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>8000000</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1142,49 +1120,45 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>227632000000</v>
+        <v>36200000000</v>
       </c>
       <c r="C23" t="n">
-        <v>207803000000</v>
+        <v>49073000000</v>
       </c>
       <c r="D23" t="n">
-        <v>110157000000</v>
+        <v>11625000000</v>
       </c>
       <c r="E23" t="n">
-        <v>182857000000</v>
+        <v>104039000000</v>
       </c>
       <c r="F23" t="n">
-        <v>36200000000</v>
+        <v>363059000000</v>
       </c>
       <c r="G23" t="n">
-        <v>49073000000</v>
+        <v>4262000000</v>
       </c>
       <c r="H23" t="n">
-        <v>11625000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>104039000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>363059000000</v>
-      </c>
+        <v>66001000000</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>4262000000</v>
+        <v>120182000000</v>
       </c>
       <c r="L23" t="n">
-        <v>66001000000</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>120182000000</v>
-      </c>
+        <v>113262000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>169422000000</v>
+      </c>
+      <c r="N23" t="n">
+        <v>97682000000</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>113262000000</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>169422000000</v>
-      </c>
+        <v>161164000000</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1515,53 +1489,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3453374000000</v>
+        <v>3369022000000</v>
       </c>
       <c r="C38" t="n">
-        <v>3444021000000</v>
+        <v>3348385000000</v>
       </c>
       <c r="D38" t="n">
-        <v>3410983000000</v>
+        <v>3344008000000</v>
       </c>
       <c r="E38" t="n">
-        <v>3405277000000</v>
+        <v>3362810000000</v>
       </c>
       <c r="F38" t="n">
-        <v>3369022000000</v>
+        <v>3364014000000</v>
       </c>
       <c r="G38" t="n">
-        <v>3348385000000</v>
+        <v>3357843000000</v>
       </c>
       <c r="H38" t="n">
-        <v>3344008000000</v>
+        <v>3362642000000</v>
       </c>
       <c r="I38" t="n">
-        <v>3362810000000</v>
+        <v>3375245000000</v>
       </c>
       <c r="J38" t="n">
-        <v>3364014000000</v>
+        <v>3355490000000</v>
       </c>
       <c r="K38" t="n">
-        <v>3357843000000</v>
+        <v>3271085000000</v>
       </c>
       <c r="L38" t="n">
-        <v>3362642000000</v>
+        <v>3324663000000</v>
       </c>
       <c r="M38" t="n">
-        <v>3375245000000</v>
+        <v>3554377000000</v>
       </c>
       <c r="N38" t="n">
-        <v>3355490000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>3271085000000</v>
-      </c>
+        <v>3614861000000</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>3324663000000</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3554377000000</v>
-      </c>
+        <v>3684726000000</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1570,53 +1540,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>804420000000</v>
+        <v>749179000000</v>
       </c>
       <c r="C39" t="n">
-        <v>804140000000</v>
+        <v>751818000000</v>
       </c>
       <c r="D39" t="n">
-        <v>779840000000</v>
+        <v>754003000000</v>
       </c>
       <c r="E39" t="n">
-        <v>775872000000</v>
+        <v>774392000000</v>
       </c>
       <c r="F39" t="n">
-        <v>749179000000</v>
+        <v>783323000000</v>
       </c>
       <c r="G39" t="n">
-        <v>751818000000</v>
+        <v>778868000000</v>
       </c>
       <c r="H39" t="n">
-        <v>754003000000</v>
+        <v>793121000000</v>
       </c>
       <c r="I39" t="n">
-        <v>774392000000</v>
+        <v>788567000000</v>
       </c>
       <c r="J39" t="n">
-        <v>783323000000</v>
+        <v>778768000000</v>
       </c>
       <c r="K39" t="n">
-        <v>778868000000</v>
+        <v>703560000000</v>
       </c>
       <c r="L39" t="n">
-        <v>793121000000</v>
+        <v>743319000000</v>
       </c>
       <c r="M39" t="n">
-        <v>788567000000</v>
+        <v>979397000000</v>
       </c>
       <c r="N39" t="n">
-        <v>778768000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>703560000000</v>
-      </c>
+        <v>1036058000000</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>743319000000</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>979397000000</v>
-      </c>
+        <v>1111376000000</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1625,53 +1591,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2057658000000</v>
+        <v>2091380000000</v>
       </c>
       <c r="C40" t="n">
-        <v>2075948000000</v>
+        <v>2095545000000</v>
       </c>
       <c r="D40" t="n">
-        <v>2071165000000</v>
+        <v>2097157000000</v>
       </c>
       <c r="E40" t="n">
-        <v>2091055000000</v>
+        <v>2081302000000</v>
       </c>
       <c r="F40" t="n">
-        <v>2091380000000</v>
+        <v>2108365000000</v>
       </c>
       <c r="G40" t="n">
-        <v>2095545000000</v>
+        <v>2095986000000</v>
       </c>
       <c r="H40" t="n">
-        <v>2097157000000</v>
+        <v>2110408000000</v>
       </c>
       <c r="I40" t="n">
-        <v>2081302000000</v>
+        <v>2125789000000</v>
       </c>
       <c r="J40" t="n">
-        <v>2108365000000</v>
+        <v>2121260000000</v>
       </c>
       <c r="K40" t="n">
-        <v>2095986000000</v>
+        <v>2043820000000</v>
       </c>
       <c r="L40" t="n">
-        <v>2110408000000</v>
+        <v>2107429000000</v>
       </c>
       <c r="M40" t="n">
-        <v>2125789000000</v>
+        <v>2368926000000</v>
       </c>
       <c r="N40" t="n">
-        <v>2121260000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2043820000000</v>
-      </c>
+        <v>2406832000000</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>2107429000000</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2368926000000</v>
-      </c>
+        <v>2558806000000</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1680,53 +1642,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1253238000000</v>
+        <v>-1342201000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-1271808000000</v>
+        <v>-1343727000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-1291325000000</v>
+        <v>-1343154000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-1315183000000</v>
+        <v>-1306811000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-1342201000000</v>
+        <v>-1325042000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-1343727000000</v>
+        <v>-1317118000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-1343154000000</v>
+        <v>-1317287000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-1306811000000</v>
+        <v>-1337222000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-1325042000000</v>
+        <v>-1352492000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-1317118000000</v>
+        <v>-1340260000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-1317287000000</v>
+        <v>-1364110000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-1337222000000</v>
+        <v>-1389529000000</v>
       </c>
       <c r="N41" t="n">
-        <v>-1352492000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-1340260000000</v>
-      </c>
+        <v>-1370774000000</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>-1364110000000</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-1389529000000</v>
-      </c>
+        <v>-1447430000000</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1804,53 +1762,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2648954000000</v>
+        <v>2619843000000</v>
       </c>
       <c r="C45" t="n">
-        <v>2639881000000</v>
+        <v>2596567000000</v>
       </c>
       <c r="D45" t="n">
-        <v>2631143000000</v>
+        <v>2590005000000</v>
       </c>
       <c r="E45" t="n">
-        <v>2629405000000</v>
+        <v>2588418000000</v>
       </c>
       <c r="F45" t="n">
-        <v>2619843000000</v>
+        <v>2580691000000</v>
       </c>
       <c r="G45" t="n">
-        <v>2596567000000</v>
+        <v>2578975000000</v>
       </c>
       <c r="H45" t="n">
-        <v>2590005000000</v>
+        <v>2569521000000</v>
       </c>
       <c r="I45" t="n">
-        <v>2588418000000</v>
+        <v>2586678000000</v>
       </c>
       <c r="J45" t="n">
-        <v>2580691000000</v>
+        <v>2576722000000</v>
       </c>
       <c r="K45" t="n">
-        <v>2578975000000</v>
+        <v>2567525000000</v>
       </c>
       <c r="L45" t="n">
-        <v>2569521000000</v>
+        <v>2581344000000</v>
       </c>
       <c r="M45" t="n">
-        <v>2586678000000</v>
+        <v>2574980000000</v>
       </c>
       <c r="N45" t="n">
-        <v>2576722000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2567525000000</v>
-      </c>
+        <v>2578803000000</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>2581344000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2574980000000</v>
-      </c>
+        <v>2573350000000</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1859,53 +1813,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2823094000000</v>
+        <v>2833619000000</v>
       </c>
       <c r="C46" t="n">
-        <v>2823946000000</v>
+        <v>2820112000000</v>
       </c>
       <c r="D46" t="n">
-        <v>2825103000000</v>
+        <v>2823455000000</v>
       </c>
       <c r="E46" t="n">
-        <v>2833205000000</v>
+        <v>2831811000000</v>
       </c>
       <c r="F46" t="n">
-        <v>2833619000000</v>
+        <v>2834221000000</v>
       </c>
       <c r="G46" t="n">
-        <v>2820112000000</v>
+        <v>2842792000000</v>
       </c>
       <c r="H46" t="n">
-        <v>2823455000000</v>
+        <v>2843709000000</v>
       </c>
       <c r="I46" t="n">
-        <v>2831811000000</v>
+        <v>2871247000000</v>
       </c>
       <c r="J46" t="n">
-        <v>2834221000000</v>
+        <v>2871597000000</v>
       </c>
       <c r="K46" t="n">
-        <v>2842792000000</v>
+        <v>2872711000000</v>
       </c>
       <c r="L46" t="n">
-        <v>2843709000000</v>
+        <v>2897277000000</v>
       </c>
       <c r="M46" t="n">
-        <v>2871247000000</v>
+        <v>2902058000000</v>
       </c>
       <c r="N46" t="n">
-        <v>2871597000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2872711000000</v>
-      </c>
+        <v>2917126000000</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>2897277000000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2902058000000</v>
-      </c>
+        <v>2935408000000</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1914,53 +1864,49 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-174140000000</v>
+        <v>-213776000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-184065000000</v>
+        <v>-223545000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-193960000000</v>
+        <v>-233450000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-203800000000</v>
+        <v>-243393000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-213776000000</v>
+        <v>-253530000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-223545000000</v>
+        <v>-263817000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-233450000000</v>
+        <v>-274188000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-243393000000</v>
+        <v>-284569000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-253530000000</v>
+        <v>-294875000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-263817000000</v>
+        <v>-305186000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-274188000000</v>
+        <v>-315933000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-284569000000</v>
+        <v>-327078000000</v>
       </c>
       <c r="N47" t="n">
-        <v>-294875000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-305186000000</v>
-      </c>
+        <v>-338323000000</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>-315933000000</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-327078000000</v>
-      </c>
+        <v>-362058000000</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2107,53 +2053,49 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2936169000000</v>
+        <v>2966952000000</v>
       </c>
       <c r="C54" t="n">
-        <v>2938542000000</v>
+        <v>3220977000000</v>
       </c>
       <c r="D54" t="n">
-        <v>2974151000000</v>
+        <v>2799095000000</v>
       </c>
       <c r="E54" t="n">
-        <v>2707769000000</v>
+        <v>2497360000000</v>
       </c>
       <c r="F54" t="n">
-        <v>2966952000000</v>
+        <v>2406213000000</v>
       </c>
       <c r="G54" t="n">
-        <v>3220977000000</v>
+        <v>2745907000000</v>
       </c>
       <c r="H54" t="n">
-        <v>2799095000000</v>
+        <v>2561573000000</v>
       </c>
       <c r="I54" t="n">
-        <v>2497360000000</v>
+        <v>2428362000000</v>
       </c>
       <c r="J54" t="n">
-        <v>2406213000000</v>
+        <v>2465235000000</v>
       </c>
       <c r="K54" t="n">
-        <v>2745907000000</v>
+        <v>2625828000000</v>
       </c>
       <c r="L54" t="n">
-        <v>2561573000000</v>
+        <v>3196786000000</v>
       </c>
       <c r="M54" t="n">
-        <v>2428362000000</v>
+        <v>3085236000000</v>
       </c>
       <c r="N54" t="n">
-        <v>2465235000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2625828000000</v>
-      </c>
+        <v>2932665000000</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>3196786000000</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3085236000000</v>
-      </c>
+        <v>3153232000000</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2162,53 +2104,49 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1360632000000</v>
+        <v>1565169000000</v>
       </c>
       <c r="C55" t="n">
-        <v>1353548000000</v>
+        <v>1782238000000</v>
       </c>
       <c r="D55" t="n">
-        <v>1499841000000</v>
+        <v>1465560000000</v>
       </c>
       <c r="E55" t="n">
-        <v>1401219000000</v>
+        <v>1177694000000</v>
       </c>
       <c r="F55" t="n">
-        <v>1565169000000</v>
+        <v>1087970000000</v>
       </c>
       <c r="G55" t="n">
-        <v>1782238000000</v>
+        <v>1360362000000</v>
       </c>
       <c r="H55" t="n">
-        <v>1465560000000</v>
+        <v>1290103000000</v>
       </c>
       <c r="I55" t="n">
-        <v>1177694000000</v>
+        <v>1249587000000</v>
       </c>
       <c r="J55" t="n">
-        <v>1087970000000</v>
+        <v>1205986000000</v>
       </c>
       <c r="K55" t="n">
-        <v>1360362000000</v>
+        <v>1243842000000</v>
       </c>
       <c r="L55" t="n">
-        <v>1290103000000</v>
+        <v>1850300000000</v>
       </c>
       <c r="M55" t="n">
-        <v>1249587000000</v>
+        <v>1792833000000</v>
       </c>
       <c r="N55" t="n">
-        <v>1205986000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1243842000000</v>
-      </c>
+        <v>1784519000000</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>1850300000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1792833000000</v>
-      </c>
+        <v>1859310000000</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2217,53 +2155,49 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1115303000000</v>
+        <v>1002293000000</v>
       </c>
       <c r="C56" t="n">
-        <v>1195201000000</v>
+        <v>1005762000000</v>
       </c>
       <c r="D56" t="n">
-        <v>1031075000000</v>
+        <v>888685000000</v>
       </c>
       <c r="E56" t="n">
-        <v>957396000000</v>
+        <v>878901000000</v>
       </c>
       <c r="F56" t="n">
-        <v>1002293000000</v>
+        <v>863857000000</v>
       </c>
       <c r="G56" t="n">
-        <v>1005762000000</v>
+        <v>9545000000</v>
       </c>
       <c r="H56" t="n">
-        <v>888685000000</v>
+        <v>872332000000</v>
       </c>
       <c r="I56" t="n">
-        <v>878901000000</v>
+        <v>794781000000</v>
       </c>
       <c r="J56" t="n">
-        <v>863857000000</v>
+        <v>857523000000</v>
       </c>
       <c r="K56" t="n">
-        <v>9545000000</v>
+        <v>982699000000</v>
       </c>
       <c r="L56" t="n">
-        <v>872332000000</v>
+        <v>995411000000</v>
       </c>
       <c r="M56" t="n">
-        <v>794781000000</v>
+        <v>925152000000</v>
       </c>
       <c r="N56" t="n">
-        <v>857523000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>982699000000</v>
-      </c>
+        <v>778014000000</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>995411000000</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>925152000000</v>
-      </c>
+        <v>930619000000</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2272,41 +2206,45 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
+      <c r="C57" t="n">
         <v>45501000000</v>
       </c>
+      <c r="D57" t="n">
+        <v>45501000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>45501000000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>45501000000</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>45501000000</v>
+        <v>9545000000</v>
       </c>
       <c r="I57" t="n">
-        <v>45501000000</v>
+        <v>9545000000</v>
       </c>
       <c r="J57" t="n">
-        <v>45501000000</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>9545000000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9545000000</v>
+      </c>
       <c r="L57" t="n">
-        <v>9545000000</v>
+        <v>20548000000</v>
       </c>
       <c r="M57" t="n">
-        <v>9545000000</v>
+        <v>20548000000</v>
       </c>
       <c r="N57" t="n">
-        <v>9545000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>9545000000</v>
-      </c>
+        <v>20548000000</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>20548000000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>20548000000</v>
-      </c>
+        <v>20549000000</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2315,53 +2253,49 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>883213000000</v>
+        <v>840533000000</v>
       </c>
       <c r="C58" t="n">
-        <v>812772000000</v>
+        <v>821269000000</v>
       </c>
       <c r="D58" t="n">
-        <v>866214000000</v>
+        <v>822328000000</v>
       </c>
       <c r="E58" t="n">
-        <v>783871000000</v>
+        <v>818243000000</v>
       </c>
       <c r="F58" t="n">
-        <v>840533000000</v>
+        <v>831864000000</v>
       </c>
       <c r="G58" t="n">
-        <v>821269000000</v>
+        <v>815804000000</v>
       </c>
       <c r="H58" t="n">
-        <v>822328000000</v>
+        <v>812572000000</v>
       </c>
       <c r="I58" t="n">
-        <v>818243000000</v>
+        <v>789670000000</v>
       </c>
       <c r="J58" t="n">
-        <v>831864000000</v>
+        <v>803136000000</v>
       </c>
       <c r="K58" t="n">
-        <v>815804000000</v>
+        <v>800697000000</v>
       </c>
       <c r="L58" t="n">
-        <v>812572000000</v>
+        <v>796498000000</v>
       </c>
       <c r="M58" t="n">
-        <v>789670000000</v>
+        <v>812674000000</v>
       </c>
       <c r="N58" t="n">
-        <v>803136000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>800697000000</v>
-      </c>
+        <v>815555000000</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>796498000000</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>812674000000</v>
-      </c>
+        <v>808725000000</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2577,53 +2511,49 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>158596223000000</v>
+        <v>151273539000000</v>
       </c>
       <c r="C68" t="n">
-        <v>167538318000000</v>
+        <v>160435177000000</v>
       </c>
       <c r="D68" t="n">
-        <v>157170561000000</v>
+        <v>160953350000000</v>
       </c>
       <c r="E68" t="n">
-        <v>147314878000000</v>
+        <v>165560358000000</v>
       </c>
       <c r="F68" t="n">
-        <v>151273539000000</v>
+        <v>162526238000000</v>
       </c>
       <c r="G68" t="n">
-        <v>160435177000000</v>
+        <v>165831996000000</v>
       </c>
       <c r="H68" t="n">
-        <v>160953350000000</v>
+        <v>172343012000000</v>
       </c>
       <c r="I68" t="n">
-        <v>165560358000000</v>
+        <v>174582486000000</v>
       </c>
       <c r="J68" t="n">
-        <v>162526238000000</v>
+        <v>183674150000000</v>
       </c>
       <c r="K68" t="n">
-        <v>165831996000000</v>
+        <v>185045048000000</v>
       </c>
       <c r="L68" t="n">
-        <v>172343012000000</v>
+        <v>183684077000000</v>
       </c>
       <c r="M68" t="n">
-        <v>174582486000000</v>
+        <v>190300883000000</v>
       </c>
       <c r="N68" t="n">
-        <v>183674150000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>185045048000000</v>
-      </c>
+        <v>191336700000000</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>183684077000000</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>190300883000000</v>
-      </c>
+        <v>203584954000000</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2632,53 +2562,49 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>42781000000</v>
+        <v>36001000000</v>
       </c>
       <c r="C69" t="n">
-        <v>41479000000</v>
+        <v>33805000000</v>
       </c>
       <c r="D69" t="n">
-        <v>39912000000</v>
+        <v>32965000000</v>
       </c>
       <c r="E69" t="n">
-        <v>38442000000</v>
+        <v>31179000000</v>
       </c>
       <c r="F69" t="n">
-        <v>36001000000</v>
+        <v>30330000000</v>
       </c>
       <c r="G69" t="n">
-        <v>33805000000</v>
+        <v>29184000000</v>
       </c>
       <c r="H69" t="n">
-        <v>32965000000</v>
+        <v>27331000000</v>
       </c>
       <c r="I69" t="n">
-        <v>31179000000</v>
+        <v>26513000000</v>
       </c>
       <c r="J69" t="n">
-        <v>30330000000</v>
+        <v>25065000000</v>
       </c>
       <c r="K69" t="n">
-        <v>29184000000</v>
+        <v>24261000000</v>
       </c>
       <c r="L69" t="n">
-        <v>27331000000</v>
+        <v>23474000000</v>
       </c>
       <c r="M69" t="n">
-        <v>26513000000</v>
+        <v>22421000000</v>
       </c>
       <c r="N69" t="n">
-        <v>25065000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>24261000000</v>
-      </c>
+        <v>21622000000</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>23474000000</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>22421000000</v>
-      </c>
+        <v>18333000000</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2894,51 +2820,47 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4591914000000</v>
+        <v>3237783000000</v>
       </c>
       <c r="C79" t="n">
-        <v>8643183000000</v>
+        <v>6320362000000</v>
       </c>
       <c r="D79" t="n">
-        <v>8132498000000</v>
+        <v>4750718000000</v>
       </c>
       <c r="E79" t="n">
-        <v>3040294000000</v>
+        <v>5184928000000</v>
       </c>
       <c r="F79" t="n">
-        <v>3237783000000</v>
+        <v>1933498000000</v>
       </c>
       <c r="G79" t="n">
-        <v>6320362000000</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4750718000000</v>
-      </c>
+        <v>7615859000000</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>5184928000000</v>
+        <v>10727628000000</v>
       </c>
       <c r="J79" t="n">
-        <v>1933498000000</v>
+        <v>14885431000000</v>
       </c>
       <c r="K79" t="n">
-        <v>7615859000000</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+        <v>11893026000000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9652115000000</v>
+      </c>
       <c r="M79" t="n">
-        <v>10727628000000</v>
+        <v>10278918000000</v>
       </c>
       <c r="N79" t="n">
-        <v>14885431000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>11893026000000</v>
-      </c>
+        <v>10826453000000</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>9652115000000</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>10278918000000</v>
-      </c>
+        <v>14312303000000</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2947,53 +2869,49 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3175573000000</v>
+        <v>3005933000000</v>
       </c>
       <c r="C80" t="n">
-        <v>8063808000000</v>
+        <v>5627362000000</v>
       </c>
       <c r="D80" t="n">
-        <v>8132498000000</v>
+        <v>4519918000000</v>
       </c>
       <c r="E80" t="n">
-        <v>2344144000000</v>
+        <v>4954828000000</v>
       </c>
       <c r="F80" t="n">
-        <v>3005933000000</v>
+        <v>1933498000000</v>
       </c>
       <c r="G80" t="n">
-        <v>5627362000000</v>
+        <v>7615859000000</v>
       </c>
       <c r="H80" t="n">
-        <v>4519918000000</v>
+        <v>12053841000000</v>
       </c>
       <c r="I80" t="n">
-        <v>4954828000000</v>
+        <v>9098028000000</v>
       </c>
       <c r="J80" t="n">
-        <v>1933498000000</v>
+        <v>11687521000000</v>
       </c>
       <c r="K80" t="n">
-        <v>7615859000000</v>
+        <v>9421326000000</v>
       </c>
       <c r="L80" t="n">
-        <v>12053841000000</v>
+        <v>9652115000000</v>
       </c>
       <c r="M80" t="n">
-        <v>9098028000000</v>
+        <v>10278918000000</v>
       </c>
       <c r="N80" t="n">
-        <v>11687521000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>9421326000000</v>
-      </c>
+        <v>10826453000000</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>9652115000000</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>10278918000000</v>
-      </c>
+        <v>14312303000000</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3002,41 +2920,35 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1416341000000</v>
+        <v>231850000000</v>
       </c>
       <c r="C81" t="n">
-        <v>579375000000</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>693000000000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>230800000000</v>
+      </c>
       <c r="E81" t="n">
-        <v>696150000000</v>
-      </c>
-      <c r="F81" t="n">
-        <v>231850000000</v>
-      </c>
-      <c r="G81" t="n">
-        <v>693000000000</v>
-      </c>
+        <v>230100000000</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>230800000000</v>
+        <v>12053841000000</v>
       </c>
       <c r="I81" t="n">
-        <v>230100000000</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>12053841000000</v>
-      </c>
-      <c r="M81" t="n">
         <v>1629600000000</v>
       </c>
-      <c r="N81" t="n">
+      <c r="J81" t="n">
         <v>3197910000000</v>
       </c>
-      <c r="O81" t="n">
+      <c r="K81" t="n">
         <v>2471700000000</v>
       </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
     </row>
@@ -3093,53 +3005,49 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>134467431000000</v>
+        <v>127843977000000</v>
       </c>
       <c r="C84" t="n">
-        <v>139278464000000</v>
+        <v>133917740000000</v>
       </c>
       <c r="D84" t="n">
-        <v>129108053000000</v>
+        <v>136146181000000</v>
       </c>
       <c r="E84" t="n">
-        <v>124565867000000</v>
+        <v>139833952000000</v>
       </c>
       <c r="F84" t="n">
-        <v>127843977000000</v>
+        <v>139778855000000</v>
       </c>
       <c r="G84" t="n">
-        <v>133917740000000</v>
+        <v>137373791000000</v>
       </c>
       <c r="H84" t="n">
-        <v>136146181000000</v>
+        <v>139085743000000</v>
       </c>
       <c r="I84" t="n">
-        <v>139833952000000</v>
+        <v>141494760000000</v>
       </c>
       <c r="J84" t="n">
-        <v>139778855000000</v>
+        <v>145260765000000</v>
       </c>
       <c r="K84" t="n">
-        <v>137373791000000</v>
+        <v>148614571000000</v>
       </c>
       <c r="L84" t="n">
-        <v>139085743000000</v>
+        <v>148712452000000</v>
       </c>
       <c r="M84" t="n">
-        <v>141494760000000</v>
+        <v>154278454000000</v>
       </c>
       <c r="N84" t="n">
-        <v>145260765000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>148614571000000</v>
-      </c>
+        <v>153967816000000</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>148712452000000</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>154278454000000</v>
-      </c>
+        <v>160659164000000</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3361,16 +3269,16 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>24113000000</v>
+      </c>
+      <c r="J94" t="n">
+        <v>114464000000</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>24113000000</v>
-      </c>
-      <c r="N94" t="n">
-        <v>114464000000</v>
-      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -3451,53 +3359,49 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>142796319000000</v>
+        <v>134676428000000</v>
       </c>
       <c r="C98" t="n">
-        <v>151789005000000</v>
+        <v>143615687000000</v>
       </c>
       <c r="D98" t="n">
-        <v>141013059000000</v>
+        <v>143960713000000</v>
       </c>
       <c r="E98" t="n">
-        <v>131153586000000</v>
+        <v>148273805000000</v>
       </c>
       <c r="F98" t="n">
-        <v>134676428000000</v>
+        <v>144881402000000</v>
       </c>
       <c r="G98" t="n">
-        <v>143615687000000</v>
+        <v>148047088000000</v>
       </c>
       <c r="H98" t="n">
-        <v>143960713000000</v>
+        <v>153893967000000</v>
       </c>
       <c r="I98" t="n">
-        <v>148273805000000</v>
+        <v>155509896000000</v>
       </c>
       <c r="J98" t="n">
-        <v>144881402000000</v>
+        <v>163551388000000</v>
       </c>
       <c r="K98" t="n">
-        <v>148047088000000</v>
+        <v>164565148000000</v>
       </c>
       <c r="L98" t="n">
-        <v>153893967000000</v>
+        <v>162533053000000</v>
       </c>
       <c r="M98" t="n">
-        <v>155509896000000</v>
+        <v>168878942000000</v>
       </c>
       <c r="N98" t="n">
-        <v>163551388000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>164565148000000</v>
-      </c>
+        <v>169690650000000</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>162533053000000</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>168878942000000</v>
-      </c>
+        <v>180616921000000</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3519,7 +3423,9 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" t="n">
+        <v>17563006000000</v>
+      </c>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3559,23 +3465,19 @@
         <v>12355229000000</v>
       </c>
       <c r="L100" t="n">
-        <v>12355229000000</v>
+        <v>14814049000000</v>
       </c>
       <c r="M100" t="n">
-        <v>12355229000000</v>
+        <v>14814049000000</v>
       </c>
       <c r="N100" t="n">
-        <v>12355229000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>12355229000000</v>
-      </c>
+        <v>14814049000000</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>14814049000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>14814049000000</v>
-      </c>
+        <v>17469561000000</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3668,15 +3570,11 @@
       <c r="N103" t="n">
         <v>15396000000</v>
       </c>
-      <c r="O103" t="n">
-        <v>15396000000</v>
-      </c>
+      <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
         <v>15396000000</v>
       </c>
-      <c r="Q103" t="n">
-        <v>15396000000</v>
-      </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3700,7 +3598,7 @@
         <v>156322000000</v>
       </c>
       <c r="G104" t="n">
-        <v>156322000000</v>
+        <v>156396000000</v>
       </c>
       <c r="H104" t="n">
         <v>156322000000</v>
@@ -3712,7 +3610,7 @@
         <v>156322000000</v>
       </c>
       <c r="K104" t="n">
-        <v>156396000000</v>
+        <v>156322000000</v>
       </c>
       <c r="L104" t="n">
         <v>156322000000</v>
@@ -3723,15 +3621,11 @@
       <c r="N104" t="n">
         <v>156322000000</v>
       </c>
-      <c r="O104" t="n">
-        <v>156322000000</v>
-      </c>
+      <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
         <v>156322000000</v>
       </c>
-      <c r="Q104" t="n">
-        <v>156322000000</v>
-      </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3778,15 +3672,11 @@
       <c r="N105" t="n">
         <v>-78273000000</v>
       </c>
-      <c r="O105" t="n">
-        <v>-78273000000</v>
-      </c>
+      <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
         <v>-78273000000</v>
       </c>
-      <c r="Q105" t="n">
-        <v>-78273000000</v>
-      </c>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3910,53 +3800,49 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1685576000000</v>
+        <v>1815125000000</v>
       </c>
       <c r="C111" t="n">
-        <v>1815129000000</v>
+        <v>1976822000000</v>
       </c>
       <c r="D111" t="n">
-        <v>1815129000000</v>
+        <v>1976822000000</v>
       </c>
       <c r="E111" t="n">
-        <v>1815124000000</v>
+        <v>1976822000000</v>
       </c>
       <c r="F111" t="n">
-        <v>1815125000000</v>
+        <v>1976808000000</v>
       </c>
       <c r="G111" t="n">
-        <v>1976822000000</v>
+        <v>2130576000000</v>
       </c>
       <c r="H111" t="n">
-        <v>1976822000000</v>
+        <v>2130576000000</v>
       </c>
       <c r="I111" t="n">
-        <v>1976822000000</v>
+        <v>2130566000000</v>
       </c>
       <c r="J111" t="n">
-        <v>1976808000000</v>
+        <v>2130566000000</v>
       </c>
       <c r="K111" t="n">
-        <v>2130576000000</v>
+        <v>2572222000000</v>
       </c>
       <c r="L111" t="n">
-        <v>2130576000000</v>
+        <v>2572222000000</v>
       </c>
       <c r="M111" t="n">
-        <v>2130566000000</v>
+        <v>2572000000000</v>
       </c>
       <c r="N111" t="n">
-        <v>2130566000000</v>
-      </c>
-      <c r="O111" t="n">
         <v>2572222000000</v>
       </c>
+      <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>2572222000000</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>2572000000000</v>
-      </c>
+        <v>2896986000000</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4080,45 +3966,43 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>34146000000</v>
+        <v>-23318000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>42120000000</v>
+        <v>1019000000</v>
       </c>
       <c r="E117" t="n">
-        <v>-29013000000</v>
+        <v>22240000000</v>
       </c>
       <c r="F117" t="n">
-        <v>-23318000000</v>
+        <v>51096000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>1019000000</v>
+        <v>16909000000</v>
       </c>
       <c r="I117" t="n">
-        <v>22240000000</v>
+        <v>19827000000</v>
       </c>
       <c r="J117" t="n">
-        <v>51096000000</v>
+        <v>46454000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>16909000000</v>
+        <v>-24997000000</v>
       </c>
       <c r="M117" t="n">
-        <v>19827000000</v>
+        <v>23302000000</v>
       </c>
       <c r="N117" t="n">
-        <v>46454000000</v>
+        <v>5600000000</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>-24997000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>23302000000</v>
-      </c>
+        <v>-4217000000</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
